--- a/NormalWeather_WiscWeeds.xlsx
+++ b/NormalWeather_WiscWeeds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grink\Desktop\Box Sync\Grad School\Grad School Stuff\WiscWeeds Analysis\Weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5249090-E719-4E92-B2E0-A2B1DAA0C0F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{84F5CEDA-AB42-4B94-AD31-3B4288D6CA1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
